--- a/MonsterIndex.xlsx
+++ b/MonsterIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\TTS_PF_Bestiary_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6F2657-C755-4ACA-B2CB-8560711344D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE31A03-B407-44CD-8DD1-68AF6BFDD678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5805" yWindow="2550" windowWidth="19200" windowHeight="16800" xr2:uid="{D6EC33B4-71F7-4E52-9A24-A4398D9E5B3B}"/>
+    <workbookView xWindow="-22620" yWindow="5475" windowWidth="12180" windowHeight="11130" xr2:uid="{D6EC33B4-71F7-4E52-9A24-A4398D9E5B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +852,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -946,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -991,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F521653-6F3A-4CAF-BC54-DDAC8D00388B}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1355,56 +1365,96 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17">
+        <v>7</v>
+      </c>
+      <c r="H2" s="17">
+        <v>8</v>
+      </c>
+      <c r="I2" s="17">
+        <v>9</v>
+      </c>
+      <c r="J2" s="17">
+        <v>10</v>
+      </c>
+      <c r="K2" s="17">
+        <v>11</v>
+      </c>
+      <c r="L2" s="17">
+        <v>12</v>
+      </c>
+      <c r="M2" s="17">
+        <v>13</v>
+      </c>
+      <c r="N2" s="17">
+        <v>14</v>
+      </c>
+      <c r="O2" s="17">
+        <v>15</v>
+      </c>
+      <c r="P2" s="17">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>17</v>
+      </c>
+      <c r="R2" s="17">
+        <v>18</v>
+      </c>
+      <c r="S2" s="17">
+        <v>19</v>
+      </c>
+      <c r="T2" s="17">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1416,7 +1466,7 @@
       <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -1425,7 +1475,7 @@
       <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -1439,34 +1489,34 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1475,28 +1525,28 @@
       <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1504,13 +1554,13 @@
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1519,13 +1569,13 @@
       <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1537,10 +1587,10 @@
       <c r="L5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -1549,10 +1599,10 @@
       <c r="P5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="9" t="s">
         <v>56</v>
       </c>
       <c r="S5" s="4" t="s">
@@ -1563,34 +1613,34 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1599,69 +1649,69 @@
       <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1679,7 +1729,7 @@
       <c r="R7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="9" t="s">
         <v>97</v>
       </c>
       <c r="T7" s="4" t="s">
